--- a/approach.xlsx
+++ b/approach.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_66313A0B3151E946195A2E150321355EA0536474" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D984839D-EDF6-477E-8B15-F183B82AFC7E}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_66313A0B3151E946195A2E150321355EA0536474" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AB552D4-71E0-44B9-A441-4E4C9DE82659}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Problem No</t>
   </si>
@@ -62,6 +62,35 @@
   <si>
     <t>1.	dense_rank() over() function
 2.	ifnull(, null) -&gt; function</t>
+  </si>
+  <si>
+    <t>177. Nth Highest Salary</t>
+  </si>
+  <si>
+    <t>1.	dense method for rank in pandas
+2.	we use dense rank to avoid issue in ranking with duplicate values.
+3.	pd.DataFrame() to rename the column
+4.	use fstring for adding the dynamic input in the output</t>
+  </si>
+  <si>
+    <t>1.	We create a new column called rank used method='dense' i.e. dense rank function
+2.	Then we create a data frame called as n with which contains all the row with rank N
+3.	Then we create a new data frame with name as the column name for output and if len(second) == 0 we return None else we return the salary at the first location of n dataframe and for printing the dynamic input we use fstring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.	dense_rank() over() function
+2.	ifnull(, null) -&gt; function
+3.	creating and declaring a variable and adding result into this variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.	We create a result variable
+2.	Ifnull or salary we enter into result variable 
+3.	We get dense_rank function over salary desc
+4.	Where rank = N and limit 1
+5.	Return result
+</t>
   </si>
 </sst>
 </file>
@@ -85,12 +114,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -114,76 +149,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -194,6 +170,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,7 +466,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,10 +517,10 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -553,9 +533,27 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>4</v>
+    <row r="4" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>177</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -626,6 +624,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://leetcode.com/problems/second-highest-salary/" xr:uid="{91C09C9C-F25E-47FB-B64D-D6278845C544}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://leetcode.com/problems/nth-highest-salary/" xr:uid="{9AD57E76-4FDF-4EE2-83E4-B8BDF46BF2C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
